--- a/tables/Вокзал Калининград-Южный.xlsx
+++ b/tables/Вокзал Калининград-Южный.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
